--- a/数据整理/stocks/港股/00016-新鸿基地产.xlsx
+++ b/数据整理/stocks/港股/00016-新鸿基地产.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.03</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>513900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>华安CES港股通精选100ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.33</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513900</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安CES港股通精选100ETF</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>96.06</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -716,15 +796,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.70</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00016-新鸿基地产.xlsx
+++ b/数据整理/stocks/港股/00016-新鸿基地产.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00016-新鸿基地产.xlsx
+++ b/数据整理/stocks/港股/00016-新鸿基地产.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00016-新鸿基地产.xlsx
+++ b/数据整理/stocks/港股/00016-新鸿基地产.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00016-新鸿基地产.xlsx
+++ b/数据整理/stocks/港股/00016-新鸿基地产.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.14</v>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00016-新鸿基地产.xlsx
+++ b/数据整理/stocks/港股/00016-新鸿基地产.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1561,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1577,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1593,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1609,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00016-新鸿基地产.xlsx
+++ b/数据整理/stocks/港股/00016-新鸿基地产.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1566,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1561,14 +1656,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1672,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -1593,14 +1688,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -1609,14 +1704,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -1625,13 +1720,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00016-新鸿基地产.xlsx
+++ b/数据整理/stocks/港股/00016-新鸿基地产.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>162416</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -760,26 +891,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -788,6 +919,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,176 +1251,6 @@
       </c>
       <c r="H6" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1270,22 +1325,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1298,36 +1353,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1336,36 +1391,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1374,6 +1429,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1581,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00016-新鸿基地产.xlsx
+++ b/数据整理/stocks/港股/00016-新鸿基地产.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -616,7 +633,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -817,100 +1136,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -985,26 +1210,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1013,6 +1238,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1251,176 +1570,6 @@
       </c>
       <c r="H6" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1495,22 +1644,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1523,36 +1672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1561,36 +1710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1599,6 +1748,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1804,174 +2123,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>